--- a/pred_ohlcv/54_21/2020-01-15 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>48740.36525176118</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>102817.4108517612</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>46617.41085176117</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>28454.32625176118</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>30237.38215176118</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>30337.38215176118</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>30437.38215176118</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>30453.67255176118</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-74927.54874823886</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-69294.21984823885</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>138981.1077517612</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>139081.1077517612</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>139181.1077517612</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>206781.6666517611</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>205881.6666517611</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>205981.6666517611</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>206014.6735077846</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>18880.70430778465</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>18980.70430778465</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10878.08100778465</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LAMB ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>48540.36525176118</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>46717.41085176118</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>102817.4108517612</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>46617.41085176117</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>28454.32625176118</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>30237.38215176118</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>30337.38215176118</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>30437.38215176118</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>30453.67255176118</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-74927.54874823886</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-76469.25854823885</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-69294.21984823885</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>54929.77965176116</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>138981.1077517612</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>139081.1077517612</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>139181.1077517612</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>206781.6666517611</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>205881.6666517611</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>205981.6666517611</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>206014.6735077846</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>216161.6553077846</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>18880.70430778465</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>10878.08100778465</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
